--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Flt1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.71325308091922</v>
+        <v>22.51188433333333</v>
       </c>
       <c r="H2">
-        <v>6.71325308091922</v>
+        <v>67.535653</v>
       </c>
       <c r="I2">
-        <v>0.7939850315079111</v>
+        <v>0.7173237801266834</v>
       </c>
       <c r="J2">
-        <v>0.7939850315079111</v>
+        <v>0.7173237801266834</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.6723196357907</v>
+        <v>61.629167</v>
       </c>
       <c r="N2">
-        <v>29.6723196357907</v>
+        <v>184.887501</v>
       </c>
       <c r="O2">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="P2">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="Q2">
-        <v>199.1977912129918</v>
+        <v>1387.388679063684</v>
       </c>
       <c r="R2">
-        <v>199.1977912129918</v>
+        <v>12486.49811157315</v>
       </c>
       <c r="S2">
-        <v>0.582182165848033</v>
+        <v>0.606311974556916</v>
       </c>
       <c r="T2">
-        <v>0.582182165848033</v>
+        <v>0.606311974556916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.71325308091922</v>
+        <v>22.51188433333333</v>
       </c>
       <c r="H3">
-        <v>6.71325308091922</v>
+        <v>67.535653</v>
       </c>
       <c r="I3">
-        <v>0.7939850315079111</v>
+        <v>0.7173237801266834</v>
       </c>
       <c r="J3">
-        <v>0.7939850315079111</v>
+        <v>0.7173237801266834</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17020720208716</v>
+        <v>1.357683666666667</v>
       </c>
       <c r="N3">
-        <v>1.17020720208716</v>
+        <v>4.073051</v>
       </c>
       <c r="O3">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="P3">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="Q3">
-        <v>7.855897104725486</v>
+        <v>30.56401766525588</v>
       </c>
       <c r="R3">
-        <v>7.855897104725486</v>
+        <v>275.076158987303</v>
       </c>
       <c r="S3">
-        <v>0.02295990915992689</v>
+        <v>0.01335698509052281</v>
       </c>
       <c r="T3">
-        <v>0.02295990915992689</v>
+        <v>0.01335698509052281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>6.71325308091922</v>
+        <v>22.51188433333333</v>
       </c>
       <c r="H4">
-        <v>6.71325308091922</v>
+        <v>67.535653</v>
       </c>
       <c r="I4">
-        <v>0.7939850315079111</v>
+        <v>0.7173237801266834</v>
       </c>
       <c r="J4">
-        <v>0.7939850315079111</v>
+        <v>0.7173237801266834</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.624837198631971</v>
+        <v>9.926218666666665</v>
       </c>
       <c r="N4">
-        <v>9.624837198631971</v>
+        <v>29.778656</v>
       </c>
       <c r="O4">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="P4">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="Q4">
-        <v>64.61396797706199</v>
+        <v>223.4578864913742</v>
       </c>
       <c r="R4">
-        <v>64.61396797706199</v>
+        <v>2011.120978422368</v>
       </c>
       <c r="S4">
-        <v>0.1888429564999513</v>
+        <v>0.09765482047924456</v>
       </c>
       <c r="T4">
-        <v>0.1888429564999513</v>
+        <v>0.09765482047924458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.74188500672158</v>
+        <v>7.074492666666667</v>
       </c>
       <c r="H5">
-        <v>1.74188500672158</v>
+        <v>21.223478</v>
       </c>
       <c r="I5">
-        <v>0.2060149684920889</v>
+        <v>0.2254232363222357</v>
       </c>
       <c r="J5">
-        <v>0.2060149684920889</v>
+        <v>0.2254232363222357</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.6723196357907</v>
+        <v>61.629167</v>
       </c>
       <c r="N5">
-        <v>29.6723196357907</v>
+        <v>184.887501</v>
       </c>
       <c r="O5">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="P5">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="Q5">
-        <v>51.68576868823416</v>
+        <v>435.9950899942754</v>
       </c>
       <c r="R5">
-        <v>51.68576868823416</v>
+        <v>3923.955809948478</v>
       </c>
       <c r="S5">
-        <v>0.1510585663385312</v>
+        <v>0.1905371204916797</v>
       </c>
       <c r="T5">
-        <v>0.1510585663385312</v>
+        <v>0.1905371204916796</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.74188500672158</v>
+        <v>7.074492666666667</v>
       </c>
       <c r="H6">
-        <v>1.74188500672158</v>
+        <v>21.223478</v>
       </c>
       <c r="I6">
-        <v>0.2060149684920889</v>
+        <v>0.2254232363222357</v>
       </c>
       <c r="J6">
-        <v>0.2060149684920889</v>
+        <v>0.2254232363222357</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.17020720208716</v>
+        <v>1.357683666666667</v>
       </c>
       <c r="N6">
-        <v>1.17020720208716</v>
+        <v>4.073051</v>
       </c>
       <c r="O6">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="P6">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="Q6">
-        <v>2.038366380073234</v>
+        <v>9.604923143486443</v>
       </c>
       <c r="R6">
-        <v>2.038366380073234</v>
+        <v>86.44430829137799</v>
       </c>
       <c r="S6">
-        <v>0.00595739815545431</v>
+        <v>0.004197511486489053</v>
       </c>
       <c r="T6">
-        <v>0.00595739815545431</v>
+        <v>0.004197511486489053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.074492666666667</v>
+      </c>
+      <c r="H7">
+        <v>21.223478</v>
+      </c>
+      <c r="I7">
+        <v>0.2254232363222357</v>
+      </c>
+      <c r="J7">
+        <v>0.2254232363222357</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.926218666666665</v>
+      </c>
+      <c r="N7">
+        <v>29.778656</v>
+      </c>
+      <c r="O7">
+        <v>0.1361377151918736</v>
+      </c>
+      <c r="P7">
+        <v>0.1361377151918736</v>
+      </c>
+      <c r="Q7">
+        <v>70.22296116506311</v>
+      </c>
+      <c r="R7">
+        <v>632.006650485568</v>
+      </c>
+      <c r="S7">
+        <v>0.03068860434406693</v>
+      </c>
+      <c r="T7">
+        <v>0.03068860434406693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.796779333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.390338</v>
+      </c>
+      <c r="I8">
+        <v>0.05725298355108089</v>
+      </c>
+      <c r="J8">
+        <v>0.05725298355108089</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>61.629167</v>
+      </c>
+      <c r="N8">
+        <v>184.887501</v>
+      </c>
+      <c r="O8">
+        <v>0.8452417044501688</v>
+      </c>
+      <c r="P8">
+        <v>0.8452417044501688</v>
+      </c>
+      <c r="Q8">
+        <v>110.7340135961487</v>
+      </c>
+      <c r="R8">
+        <v>996.606122365338</v>
+      </c>
+      <c r="S8">
+        <v>0.04839260940157309</v>
+      </c>
+      <c r="T8">
+        <v>0.04839260940157309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.74188500672158</v>
-      </c>
-      <c r="H7">
-        <v>1.74188500672158</v>
-      </c>
-      <c r="I7">
-        <v>0.2060149684920889</v>
-      </c>
-      <c r="J7">
-        <v>0.2060149684920889</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.624837198631971</v>
-      </c>
-      <c r="N7">
-        <v>9.624837198631971</v>
-      </c>
-      <c r="O7">
-        <v>0.2378419604980547</v>
-      </c>
-      <c r="P7">
-        <v>0.2378419604980547</v>
-      </c>
-      <c r="Q7">
-        <v>16.76535960843317</v>
-      </c>
-      <c r="R7">
-        <v>16.76535960843317</v>
-      </c>
-      <c r="S7">
-        <v>0.0489990039981034</v>
-      </c>
-      <c r="T7">
-        <v>0.0489990039981034</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.796779333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.390338</v>
+      </c>
+      <c r="I9">
+        <v>0.05725298355108089</v>
+      </c>
+      <c r="J9">
+        <v>0.05725298355108089</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.357683666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.073051</v>
+      </c>
+      <c r="O9">
+        <v>0.01862058035795759</v>
+      </c>
+      <c r="P9">
+        <v>0.01862058035795759</v>
+      </c>
+      <c r="Q9">
+        <v>2.439457953470888</v>
+      </c>
+      <c r="R9">
+        <v>21.955121581238</v>
+      </c>
+      <c r="S9">
+        <v>0.001066083780945726</v>
+      </c>
+      <c r="T9">
+        <v>0.001066083780945726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.796779333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.390338</v>
+      </c>
+      <c r="I10">
+        <v>0.05725298355108089</v>
+      </c>
+      <c r="J10">
+        <v>0.05725298355108089</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.926218666666665</v>
+      </c>
+      <c r="N10">
+        <v>29.778656</v>
+      </c>
+      <c r="O10">
+        <v>0.1361377151918736</v>
+      </c>
+      <c r="P10">
+        <v>0.1361377151918736</v>
+      </c>
+      <c r="Q10">
+        <v>17.83522455841422</v>
+      </c>
+      <c r="R10">
+        <v>160.517021025728</v>
+      </c>
+      <c r="S10">
+        <v>0.007794290368562072</v>
+      </c>
+      <c r="T10">
+        <v>0.007794290368562074</v>
       </c>
     </row>
   </sheetData>
